--- a/План действии.xlsx
+++ b/План действии.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Владислав\Desktop\Твой Ход\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76BD618A-71BE-4B6C-BD65-18D9743019F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97173A5F-89F3-4DC4-879F-D26D8FCA3026}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="4188" yWindow="3360" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
   <si>
     <t>Этап</t>
   </si>
@@ -164,6 +164,9 @@
     <t>Пост "Мы проверили 10 000 заданий за полгода. Итоги работы!".
 Благодарности первым пользователям.
 Опрос: "Что бы вы хотели улучшить в будущем?".</t>
+  </si>
+  <si>
+    <t>Отстаем пиздец</t>
   </si>
 </sst>
 </file>
@@ -179,12 +182,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="3">
@@ -227,7 +236,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -252,6 +261,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -532,10 +542,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -543,9 +553,10 @@
     <col min="1" max="3" width="18" customWidth="1"/>
     <col min="4" max="4" width="27.33203125" customWidth="1"/>
     <col min="5" max="5" width="26.77734375" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -562,7 +573,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>3</v>
       </c>
@@ -578,8 +589,11 @@
       <c r="E2" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="F2" s="10" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="3" spans="1:5" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>10</v>
       </c>
@@ -596,7 +610,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="259.2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" ht="259.2" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>15</v>
       </c>
@@ -613,7 +627,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="144" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" ht="144" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
         <v>20</v>
       </c>
@@ -630,7 +644,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A6" s="9" t="s">
         <v>25</v>
       </c>
@@ -647,7 +661,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A7" s="9" t="s">
         <v>30</v>
       </c>

--- a/План действии.xlsx
+++ b/План действии.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Владислав\Desktop\Твой Ход\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97173A5F-89F3-4DC4-879F-D26D8FCA3026}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30F1EBF2-5ADA-4EDC-96F9-95FC603DD93E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="4188" yWindow="3360" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="4188" yWindow="3360" windowWidth="17280" windowHeight="8880" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Лист1" sheetId="1" r:id="rId1"/>
+    <sheet name="План действии" sheetId="1" r:id="rId1"/>
+    <sheet name="Команда" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
   <si>
     <t>Этап</t>
   </si>
@@ -167,6 +168,27 @@
   </si>
   <si>
     <t>Отстаем пиздец</t>
+  </si>
+  <si>
+    <t>ФИО участника</t>
+  </si>
+  <si>
+    <t>Лидер</t>
+  </si>
+  <si>
+    <t>Роль</t>
+  </si>
+  <si>
+    <t>Тушов Владислав Михайлович</t>
+  </si>
+  <si>
+    <t>Овод Георгий Сергеевич</t>
+  </si>
+  <si>
+    <t>Пресс-секретарь</t>
+  </si>
+  <si>
+    <t>ID</t>
   </si>
 </sst>
 </file>
@@ -544,7 +566,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
@@ -681,4 +703,53 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF9EB0AD-2A02-45CF-89F7-F3E343946413}">
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="27" customWidth="1"/>
+    <col min="2" max="2" width="17.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C3">
+        <v>699243</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>